--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hr</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,694 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>248</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Walaa Marie</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36620537</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>01118022106</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>659</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mohamed Abdelhameid</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36620538</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01061444247</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>663</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mohamed Refaat</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36620539</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01061444347</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10002</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fady Saied Ibrahim</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>36620540</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>01066254912</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10003</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1751</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Peter Nagdy Fakry</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>36620541</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>01274938471</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10004</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1541</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Naglaa Ibrahim AbdElKader</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>36620542</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>01123823532</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45710</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10005</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>934</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aghathon Loukas Mokhles</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>36620543</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>01279089941</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10006</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>657</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ahmed ibrahim Eissa</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>36620544</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>01030821888</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10007</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>224</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Habiba Tarek</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>36620545</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>01112286918</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10008</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>146</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Michael Ishaq</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>36620546</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>01277642246</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>23</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>741</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Samer Samir Atallah</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>36620547</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>01118574998</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10010</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>721</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mina Adel Fouad</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>36620548</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>01030817555</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10011</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>932</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mohamed ElSaid Metwally</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>36620549</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>01022257363</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10012</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Omar AbdelRahman Mousa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>36620550</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>01060471962</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="F20" t="n">
+        <v>27</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10013</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nermeen Amin Khalil</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>36620551</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>01278844840</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10014</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1614</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dareen Hussein Ahmed</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>36620552</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>01027821333</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10015</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>563</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mohamed Enaya</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36620553</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>01004846375</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10016</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>72</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mostafa El Banna</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36620554</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>01096958681</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>31</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10017</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>945</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Khaled Ahmed AbdElGelil ElGendy</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>36620555</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>01020985077</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44598</v>
+      </c>
+      <c r="F25" t="n">
+        <v>32</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10018</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>968</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abdallah Mohamed Mohamed Roshdy</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>36620556</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>01114000922</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10019</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mohamed Sabry Ahmed</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>36620557</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>01021360024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10020</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>884</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Islam Mohamed Elsayed</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>36620558</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>01063301935</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10021</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -616,8 +616,10 @@
           <t>Nour ElDin Noaman</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1513</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -635,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>Hr</t>
         </is>
       </c>
     </row>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -488,8 +488,10 @@
           <t>Mohamed Abd El Ghany Omar</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1234</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -488,15 +488,11 @@
           <t>Mohamed Abd El Ghany Omar</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>01554694554</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1554694554</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>45179</v>
@@ -525,10 +521,8 @@
       <c r="C3" t="n">
         <v>5678</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>01093268228</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1093268228</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>45787</v>
@@ -557,10 +551,8 @@
       <c r="C4" t="n">
         <v>3320</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>01018925400</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1018925400</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>45658</v>
@@ -589,10 +581,8 @@
       <c r="C5" t="n">
         <v>6080</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01552497624</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1552497624</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44958</v>
@@ -618,15 +608,11 @@
           <t>Nour ElDin Noaman</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1513</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>01278384404</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1513</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1278384404</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44958</v>
@@ -655,10 +641,8 @@
       <c r="C7" t="n">
         <v>36620537</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>01118022106</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1118022106</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -685,10 +669,8 @@
       <c r="C8" t="n">
         <v>36620538</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>01061444247</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1061444247</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -715,10 +697,8 @@
       <c r="C9" t="n">
         <v>36620539</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>01061444347</t>
-        </is>
+      <c r="D9" t="n">
+        <v>1061444347</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -745,10 +725,8 @@
       <c r="C10" t="n">
         <v>36620540</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>01066254912</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1066254912</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44958</v>
@@ -777,10 +755,8 @@
       <c r="C11" t="n">
         <v>36620541</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>01274938471</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1274938471</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>45915</v>
@@ -809,10 +785,8 @@
       <c r="C12" t="n">
         <v>36620542</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>01123823532</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1123823532</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>45710</v>
@@ -841,10 +815,8 @@
       <c r="C13" t="n">
         <v>36620543</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>01279089941</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1279089941</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44605</v>
@@ -873,10 +845,8 @@
       <c r="C14" t="n">
         <v>36620544</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>01030821888</t>
-        </is>
+      <c r="D14" t="n">
+        <v>1030821888</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
@@ -903,10 +873,8 @@
       <c r="C15" t="n">
         <v>36620545</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>01112286918</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1112286918</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
@@ -933,10 +901,8 @@
       <c r="C16" t="n">
         <v>36620546</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>01277642246</t>
-        </is>
+      <c r="D16" t="n">
+        <v>1277642246</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
@@ -963,10 +929,8 @@
       <c r="C17" t="n">
         <v>36620547</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>01118574998</t>
-        </is>
+      <c r="D17" t="n">
+        <v>1118574998</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44240</v>
@@ -995,10 +959,8 @@
       <c r="C18" t="n">
         <v>36620548</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>01030817555</t>
-        </is>
+      <c r="D18" t="n">
+        <v>1030817555</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44228</v>
@@ -1027,10 +989,8 @@
       <c r="C19" t="n">
         <v>36620549</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>01022257363</t>
-        </is>
+      <c r="D19" t="n">
+        <v>1022257363</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44604</v>
@@ -1059,10 +1019,8 @@
       <c r="C20" t="n">
         <v>36620550</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>01060471962</t>
-        </is>
+      <c r="D20" t="n">
+        <v>1060471962</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>45182</v>
@@ -1091,10 +1049,8 @@
       <c r="C21" t="n">
         <v>36620551</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>01278844840</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1278844840</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44913</v>
@@ -1123,10 +1079,8 @@
       <c r="C22" t="n">
         <v>36620552</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>01027821333</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1027821333</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>45760</v>
@@ -1155,10 +1109,8 @@
       <c r="C23" t="n">
         <v>36620553</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>01004846375</t>
-        </is>
+      <c r="D23" t="n">
+        <v>1004846375</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
@@ -1185,10 +1137,8 @@
       <c r="C24" t="n">
         <v>36620554</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>01096958681</t>
-        </is>
+      <c r="D24" t="n">
+        <v>1096958681</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
@@ -1215,10 +1165,8 @@
       <c r="C25" t="n">
         <v>36620555</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>01020985077</t>
-        </is>
+      <c r="D25" t="n">
+        <v>1020985077</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44598</v>
@@ -1247,10 +1195,8 @@
       <c r="C26" t="n">
         <v>36620556</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>01114000922</t>
-        </is>
+      <c r="D26" t="n">
+        <v>1114000922</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44699</v>
@@ -1279,10 +1225,8 @@
       <c r="C27" t="n">
         <v>36620557</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>01021360024</t>
-        </is>
+      <c r="D27" t="n">
+        <v>1021360024</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44819</v>
@@ -1311,10 +1255,8 @@
       <c r="C28" t="n">
         <v>36620558</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>01063301935</t>
-        </is>
+      <c r="D28" t="n">
+        <v>1063301935</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44197</v>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,27 +511,27 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1632</v>
+        <v>1488</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manal ElMetwally ElHoseiny</t>
+          <t>Bassil Nour ElDin Noaman Gewely</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5678</v>
+        <v>3320</v>
       </c>
       <c r="D3" t="n">
-        <v>1093268228</v>
+        <v>1018925400</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45787</v>
+        <v>45658</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -541,27 +541,27 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1488</v>
+        <v>181</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bassil Nour ElDin Noaman Gewely</t>
+          <t>Mohamed Saied</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3320</v>
+        <v>6080</v>
       </c>
       <c r="D4" t="n">
-        <v>1018925400</v>
+        <v>1552497624</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45658</v>
+        <v>44958</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -571,85 +571,83 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>181</v>
+        <v>2040</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mohamed Saied</t>
+          <t>Nour ElDin Noaman</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6080</v>
+        <v>1513</v>
       </c>
       <c r="D5" t="n">
-        <v>1552497624</v>
+        <v>1278384404</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>Hr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2040</v>
+        <v>248</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nour ElDin Noaman</t>
+          <t>Walaa Marie</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1513</v>
+        <v>36620537</v>
       </c>
       <c r="D6" t="n">
-        <v>1278384404</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>44958</v>
-      </c>
+        <v>1118022106</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hr</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>248</v>
+        <v>659</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Walaa Marie</t>
+          <t>Mohamed Abdelhameid</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36620537</v>
+        <v>36620538</v>
       </c>
       <c r="D7" t="n">
-        <v>1118022106</v>
+        <v>1061444247</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -659,25 +657,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mohamed Abdelhameid</t>
+          <t>Mohamed Refaat</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36620538</v>
+        <v>36620539</v>
       </c>
       <c r="D8" t="n">
-        <v>1061444247</v>
+        <v>1061444347</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -687,25 +685,27 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>663</v>
+        <v>1124</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mohamed Refaat</t>
+          <t>Fady Saied Ibrahim</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36620539</v>
+        <v>36620540</v>
       </c>
       <c r="D9" t="n">
-        <v>1061444347</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>1066254912</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44958</v>
+      </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -715,27 +715,27 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1124</v>
+        <v>1751</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fady Saied Ibrahim</t>
+          <t>Peter Nagdy Fakry</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36620540</v>
+        <v>36620541</v>
       </c>
       <c r="D10" t="n">
-        <v>1066254912</v>
+        <v>1274938471</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44958</v>
+        <v>45915</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -745,27 +745,27 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1751</v>
+        <v>1541</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Peter Nagdy Fakry</t>
+          <t>Naglaa Ibrahim AbdElKader</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36620541</v>
+        <v>36620542</v>
       </c>
       <c r="D11" t="n">
-        <v>1274938471</v>
+        <v>1123823532</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45915</v>
+        <v>45710</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -775,27 +775,27 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1541</v>
+        <v>934</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naglaa Ibrahim AbdElKader</t>
+          <t>Aghathon Loukas Mokhles</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36620542</v>
+        <v>36620543</v>
       </c>
       <c r="D12" t="n">
-        <v>1123823532</v>
+        <v>1279089941</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45710</v>
+        <v>44605</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -805,27 +805,25 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>934</v>
+        <v>657</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aghathon Loukas Mokhles</t>
+          <t>Ahmed ibrahim Eissa</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36620543</v>
+        <v>36620544</v>
       </c>
       <c r="D13" t="n">
-        <v>1279089941</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>44605</v>
-      </c>
+        <v>1030821888</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -835,25 +833,25 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>657</v>
+        <v>224</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ahmed ibrahim Eissa</t>
+          <t>Habiba Tarek</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36620544</v>
+        <v>36620545</v>
       </c>
       <c r="D14" t="n">
-        <v>1030821888</v>
+        <v>1112286918</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -863,25 +861,25 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Habiba Tarek</t>
+          <t>Michael Ishaq</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36620545</v>
+        <v>36620546</v>
       </c>
       <c r="D15" t="n">
-        <v>1112286918</v>
+        <v>1277642246</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -891,25 +889,27 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>146</v>
+        <v>741</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Michael Ishaq</t>
+          <t>Samer Samir Atallah</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36620546</v>
+        <v>36620547</v>
       </c>
       <c r="D16" t="n">
-        <v>1277642246</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>1118574998</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>44240</v>
+      </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -919,27 +919,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Samer Samir Atallah</t>
+          <t>Mina Adel Fouad</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36620547</v>
+        <v>36620548</v>
       </c>
       <c r="D17" t="n">
-        <v>1118574998</v>
+        <v>1030817555</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44240</v>
+        <v>44228</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -949,27 +949,27 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>721</v>
+        <v>932</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mina Adel Fouad</t>
+          <t>Mohamed ElSaid Metwally</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36620548</v>
+        <v>36620549</v>
       </c>
       <c r="D18" t="n">
-        <v>1030817555</v>
+        <v>1022257363</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44228</v>
+        <v>44604</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -979,27 +979,27 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>932</v>
+        <v>1266</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mohamed ElSaid Metwally</t>
+          <t>Omar AbdelRahman Mousa</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36620549</v>
+        <v>36620550</v>
       </c>
       <c r="D19" t="n">
-        <v>1022257363</v>
+        <v>1060471962</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44604</v>
+        <v>45182</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1266</v>
+        <v>1035</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Omar AbdelRahman Mousa</t>
+          <t>Nermeen Amin Khalil</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>36620550</v>
+        <v>36620551</v>
       </c>
       <c r="D20" t="n">
-        <v>1060471962</v>
+        <v>1278844840</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45182</v>
+        <v>44913</v>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1039,27 +1039,27 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1035</v>
+        <v>1614</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nermeen Amin Khalil</t>
+          <t>Dareen Hussein Ahmed</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>36620551</v>
+        <v>36620552</v>
       </c>
       <c r="D21" t="n">
-        <v>1278844840</v>
+        <v>1027821333</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44913</v>
+        <v>45760</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1069,27 +1069,25 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1614</v>
+        <v>563</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dareen Hussein Ahmed</t>
+          <t>Mohamed Enaya</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36620552</v>
+        <v>36620553</v>
       </c>
       <c r="D22" t="n">
-        <v>1027821333</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45760</v>
-      </c>
+        <v>1004846375</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1099,25 +1097,25 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>563</v>
+        <v>72</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mohamed Enaya</t>
+          <t>Mostafa El Banna</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>36620553</v>
+        <v>36620554</v>
       </c>
       <c r="D23" t="n">
-        <v>1004846375</v>
+        <v>1096958681</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="n">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1127,25 +1125,27 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>72</v>
+        <v>945</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mostafa El Banna</t>
+          <t>Khaled Ahmed AbdElGelil ElGendy</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36620554</v>
+        <v>36620555</v>
       </c>
       <c r="D24" t="n">
-        <v>1096958681</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>1020985077</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>44598</v>
+      </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="n">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1155,27 +1155,27 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Khaled Ahmed AbdElGelil ElGendy</t>
+          <t>Abdallah Mohamed Mohamed Roshdy</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>36620555</v>
+        <v>36620556</v>
       </c>
       <c r="D25" t="n">
-        <v>1020985077</v>
+        <v>1114000922</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44598</v>
+        <v>44699</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>10018</v>
+        <v>10019</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1185,27 +1185,27 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abdallah Mohamed Mohamed Roshdy</t>
+          <t>Mohamed Sabry Ahmed</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>36620556</v>
+        <v>36620557</v>
       </c>
       <c r="D26" t="n">
-        <v>1114000922</v>
+        <v>1021360024</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44699</v>
+        <v>44819</v>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>10019</v>
+        <v>10020</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1215,59 +1215,29 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1001</v>
+        <v>884</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mohamed Sabry Ahmed</t>
+          <t>Islam Mohamed Elsayed</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36620557</v>
+        <v>36620558</v>
       </c>
       <c r="D27" t="n">
-        <v>1021360024</v>
+        <v>1063301935</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44819</v>
+        <v>44197</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>10020</v>
+        <v>10021</v>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>884</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Islam Mohamed Elsayed</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>36620558</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1063301935</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="F28" t="n">
-        <v>35</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10021</v>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,16 @@
           <t>Title</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Departement</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>E-Mail</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,94 +518,130 @@
           <t>Hr</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Unit Admin</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mohamed.AbdElGhany.Omar@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1488</v>
+        <v>1632</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bassil Nour ElDin Noaman Gewely</t>
+          <t>Manal ElMetwally ElHoseiny</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3320</v>
+        <v>5678</v>
       </c>
       <c r="D3" t="n">
-        <v>1018925400</v>
+        <v>1093268228</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45658</v>
+        <v>45787</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P&amp;G Line</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>181</v>
+        <v>1488</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohamed Saied</t>
+          <t>Bassil Nour ElDin Noaman Gewely</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6080</v>
+        <v>3320</v>
       </c>
       <c r="D4" t="n">
-        <v>1552497624</v>
+        <v>1018925400</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44958</v>
+        <v>45658</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>P&amp;G Line</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2040</v>
+        <v>181</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nour ElDin Noaman</t>
+          <t>Mohamed Saied</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1513</v>
+        <v>6080</v>
       </c>
       <c r="D5" t="n">
-        <v>1278384404</v>
+        <v>1552497624</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hr</t>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SFE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>mohamed.saied@averroes-eg.com</t>
         </is>
       </c>
     </row>
@@ -626,6 +672,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>walaa.marei@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -654,6 +710,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Direct Sales</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>mohamed.abdelhameid@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -682,6 +748,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SFE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>mohamed.refaat@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -712,6 +788,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SFE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Fady.Saied.Ibrahim@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -742,6 +828,14 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SFE</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -772,6 +866,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SFE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Naglaa.AbdElKader@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -802,6 +906,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Aghathon.Loukas.Mokhles@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -830,6 +944,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ahmed.ibrahim@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -858,6 +982,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>habiba.tarek2@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -886,6 +1020,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>michael.ishaq@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -916,6 +1060,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Samer.Samir@Averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -946,6 +1100,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mina.adel.fouad@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -976,6 +1140,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Mohamed.ElSaid.Metwally@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1006,6 +1180,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Omar.AbdelRahman.Mousa@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1036,6 +1220,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Nermeen.Amin.Khalil@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1066,6 +1260,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Dareen.Hussein.Ahmed@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1094,6 +1298,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mohamed.enaya@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1122,6 +1336,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mostafa.elbanna@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1152,6 +1376,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Khaled.ElGendy@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1182,6 +1416,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Abdallah.Roshdy@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1212,6 +1456,16 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Mohamed.Sabry.Ahmed@averroes-eg.com</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1240,6 +1494,16 @@
       <c r="H27" t="inlineStr">
         <is>
           <t>Employee</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Islam.Mohamed.Elsayed@averroes-eg.com</t>
         </is>
       </c>
     </row>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Departement</t>
+          <t>Department</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -1050,7 +1050,7 @@
         <v>44240</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
         <v>10010</v>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -934,7 +934,7 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
         <v>10007</v>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -1210,7 +1210,7 @@
         <v>44913</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
         <v>10014</v>
